--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\PostDoc1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A0253-21F4-425B-81EF-ECF9CCDAD5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E231A976-4017-405D-BD24-6C6A0C3B50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{CA00F687-1B47-4152-96A4-18305303FB0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA00F687-1B47-4152-96A4-18305303FB0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments January 18d83944939" sheetId="2" r:id="rId1"/>
@@ -62,20 +62,12 @@
     <t>20250107_Plate022</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  COL2412A023</t>
-  </si>
-  <si>
     <t>23_20241230</t>
   </si>
   <si>
     <t>20250109_Plate023</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  COL2412A009</t>
-  </si>
-  <si>
     <t>9_20250109</t>
   </si>
   <si>
@@ -88,19 +80,12 @@
     <t>20250112_Plate009</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  COL2412A025</t>
-  </si>
-  <si>
     <t>25_20250108</t>
   </si>
   <si>
     <t>20250110_Plate025</t>
   </si>
   <si>
-    <t xml:space="preserve">  COL2412A025</t>
-  </si>
-  <si>
     <t>20250111_Plate025</t>
   </si>
   <si>
@@ -110,26 +95,15 @@
     <t>20250115_Plate025</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  EPY2412A104</t>
-  </si>
-  <si>
     <t>104_20250106</t>
   </si>
   <si>
     <t>20250113_Plate104</t>
   </si>
   <si>
-    <t xml:space="preserve">  COL2412A009</t>
-  </si>
-  <si>
     <t>20250117_Plate009</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  EPY2412A88</t>
-  </si>
-  <si>
     <t>88_20250120</t>
   </si>
   <si>
@@ -139,10 +113,6 @@
     <t>20250124_Plate088</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  COL2412A017</t>
-  </si>
-  <si>
     <t>17_20250113</t>
   </si>
   <si>
@@ -155,30 +125,18 @@
     <t>20250122_Plate017</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  EPY2412A084</t>
-  </si>
-  <si>
     <t>84_20250120</t>
   </si>
   <si>
     <t>20250126_84</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  COL2412A034</t>
-  </si>
-  <si>
     <t>34_20250122</t>
   </si>
   <si>
     <t>20250126_34</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  COL2412A031</t>
-  </si>
-  <si>
     <t>31_20250121</t>
   </si>
   <si>
@@ -189,6 +147,39 @@
   </si>
   <si>
     <t>OLD_UI</t>
+  </si>
+  <si>
+    <t>COL2412A023</t>
+  </si>
+  <si>
+    <t>COL2412A009</t>
+  </si>
+  <si>
+    <t>COL2412A025</t>
+  </si>
+  <si>
+    <t>EPY2412A104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COL2412A009</t>
+  </si>
+  <si>
+    <t>EPY2412A088</t>
+  </si>
+  <si>
+    <t>COL2412A017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COL2412A017</t>
+  </si>
+  <si>
+    <t>EPY2412A084</t>
+  </si>
+  <si>
+    <t>COL2412A034</t>
+  </si>
+  <si>
+    <t>COL2412A031</t>
   </si>
 </sst>
 </file>
@@ -226,7 +217,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +599,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,222 +611,222 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\PostDoc1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E231A976-4017-405D-BD24-6C6A0C3B50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6A2E41-8EEB-4C96-84C4-09577843A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA00F687-1B47-4152-96A4-18305303FB0D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Experiments January 18d83944939'!$A$1:$C$20</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'Experiments January 18d83944939'!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Morrison_id</t>
   </si>
@@ -161,9 +161,6 @@
     <t>EPY2412A104</t>
   </si>
   <si>
-    <t xml:space="preserve"> COL2412A009</t>
-  </si>
-  <si>
     <t>EPY2412A088</t>
   </si>
   <si>
@@ -180,19 +177,87 @@
   </si>
   <si>
     <t>COL2412A031</t>
+  </si>
+  <si>
+    <t>STR2307A112</t>
+  </si>
+  <si>
+    <t>20230901_Plate310</t>
+  </si>
+  <si>
+    <t>310_20230830</t>
+  </si>
+  <si>
+    <t>441_20230807</t>
+  </si>
+  <si>
+    <t>20230902_Plate310</t>
+  </si>
+  <si>
+    <t>20230903_Plate310</t>
+  </si>
+  <si>
+    <t>20230904_Plate310</t>
+  </si>
+  <si>
+    <t>20230905_Plate310</t>
+  </si>
+  <si>
+    <t>20230810_Plate441</t>
+  </si>
+  <si>
+    <t>20230813_Plate441</t>
+  </si>
+  <si>
+    <t>20230812_Plate441</t>
+  </si>
+  <si>
+    <t>20230811_Plate441</t>
+  </si>
+  <si>
+    <t>PNF2307A072</t>
+  </si>
+  <si>
+    <t>449_20230807</t>
+  </si>
+  <si>
+    <t>20230813_Plate449</t>
+  </si>
+  <si>
+    <t>20230814_Plate449</t>
+  </si>
+  <si>
+    <t>20230815_Plate449</t>
+  </si>
+  <si>
+    <t>20230816_Plate449</t>
+  </si>
+  <si>
+    <t>PNF2307A080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,14 +276,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -268,8 +355,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15183DB0-F59F-4FC3-B81F-CFC5CCF80B35}" name="Experiments_January_18d8394493968091a74dce17edfd5f9a" displayName="Experiments_January_18d8394493968091a74dce17edfd5f9a" ref="A1:C20" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C20" xr:uid="{15183DB0-F59F-4FC3-B81F-CFC5CCF80B35}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15183DB0-F59F-4FC3-B81F-CFC5CCF80B35}" name="Experiments_January_18d8394493968091a74dce17edfd5f9a" displayName="Experiments_January_18d8394493968091a74dce17edfd5f9a" ref="A1:C33" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C33" xr:uid="{15183DB0-F59F-4FC3-B81F-CFC5CCF80B35}"/>
   <tableColumns count="3">
     <tableColumn id="4" xr3:uid="{6A2D698C-81A0-47B0-AB47-54A25F32924B}" uniqueName="4" name="UI" queryTableFieldId="4" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{76DE3F20-C3A3-4819-BAC2-CA2E2892FC23}" uniqueName="5" name="OLD_UI" queryTableFieldId="5" dataDxfId="1"/>
@@ -596,20 +683,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102C47D5-96E9-48E4-ABF8-5991BE2A7520}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -620,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -631,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -642,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -653,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -664,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -675,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -686,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -697,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -708,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -719,7 +806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -730,9 +817,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -741,9 +828,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -752,9 +839,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -763,9 +850,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -774,9 +861,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -785,9 +872,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -796,9 +883,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -807,9 +894,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -818,9 +905,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -829,7 +916,151 @@
         <v>30</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -843,7 +1074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\PostDoc1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6A2E41-8EEB-4C96-84C4-09577843A35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E025E7CB-8CF7-47CC-84BE-6E2F8E61834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA00F687-1B47-4152-96A4-18305303FB0D}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>20250122_Plate088</t>
   </si>
   <si>
-    <t>20250124_Plate088</t>
-  </si>
-  <si>
     <t>17_20250113</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>PNF2307A080</t>
+  </si>
+  <si>
+    <t>20250124_88</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102C47D5-96E9-48E4-ABF8-5991BE2A7520}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -698,10 +698,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -841,229 +841,230 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration_video.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\PostDoc1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\Documents\PhD\Code\pycode\data_migrater\prince_archiver\entrypoints\mock_prince\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E025E7CB-8CF7-47CC-84BE-6E2F8E61834F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7625749-CF09-4FCD-B6FD-28C445A336F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA00F687-1B47-4152-96A4-18305303FB0D}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>Morrison_id</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>COL2412A017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COL2412A017</t>
   </si>
   <si>
     <t>EPY2412A084</t>
@@ -295,13 +292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -685,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102C47D5-96E9-48E4-ABF8-5991BE2A7520}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -847,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -863,7 +859,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -874,7 +870,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -885,7 +881,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -896,7 +892,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -907,7 +903,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -917,146 +913,146 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
